--- a/in/crisis_specs.xlsx
+++ b/in/crisis_specs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phsrfche\Desktop\gaza_nutrition_paper\malnutrition_model\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606E19E-BA4C-47F2-88F4-3F32D3838DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2CDF3F-EA56-4E29-AE92-A70028712CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="17" r:id="rId1"/>
@@ -4128,9 +4128,9 @@
   </sheetPr>
   <dimension ref="A1:J397"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J311" sqref="J311"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98:G301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6883,7 +6883,7 @@
         <v>45429</v>
       </c>
       <c r="G98" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="38"/>
@@ -6909,7 +6909,7 @@
         <v>45436</v>
       </c>
       <c r="G99" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="38"/>
@@ -6935,7 +6935,7 @@
         <v>45443</v>
       </c>
       <c r="G100" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="38"/>
@@ -6961,7 +6961,7 @@
         <v>45450</v>
       </c>
       <c r="G101" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="38"/>
@@ -6987,7 +6987,7 @@
         <v>45457</v>
       </c>
       <c r="G102" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="38"/>
@@ -7013,7 +7013,7 @@
         <v>45464</v>
       </c>
       <c r="G103" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="38"/>
@@ -7039,7 +7039,7 @@
         <v>45471</v>
       </c>
       <c r="G104" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="38"/>
@@ -7065,7 +7065,7 @@
         <v>45478</v>
       </c>
       <c r="G105" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="38"/>
@@ -7091,7 +7091,7 @@
         <v>45485</v>
       </c>
       <c r="G106" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="38"/>
@@ -7117,7 +7117,7 @@
         <v>45492</v>
       </c>
       <c r="G107" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="38"/>
@@ -7143,7 +7143,7 @@
         <v>45499</v>
       </c>
       <c r="G108" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="38"/>
@@ -7169,7 +7169,7 @@
         <v>45506</v>
       </c>
       <c r="G109" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="38"/>
@@ -7195,7 +7195,7 @@
         <v>45513</v>
       </c>
       <c r="G110" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="38"/>
@@ -7221,7 +7221,7 @@
         <v>45520</v>
       </c>
       <c r="G111" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="38"/>
@@ -7247,7 +7247,7 @@
         <v>45527</v>
       </c>
       <c r="G112" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="38"/>
@@ -7273,7 +7273,7 @@
         <v>45534</v>
       </c>
       <c r="G113" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="38"/>
@@ -7299,7 +7299,7 @@
         <v>45541</v>
       </c>
       <c r="G114" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="38"/>
@@ -7325,7 +7325,7 @@
         <v>45548</v>
       </c>
       <c r="G115" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="38"/>
@@ -7351,7 +7351,7 @@
         <v>45555</v>
       </c>
       <c r="G116" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="38"/>
@@ -7377,7 +7377,7 @@
         <v>45562</v>
       </c>
       <c r="G117" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="38"/>
@@ -7403,7 +7403,7 @@
         <v>45569</v>
       </c>
       <c r="G118" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="38"/>
@@ -7429,7 +7429,7 @@
         <v>45576</v>
       </c>
       <c r="G119" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="38"/>
@@ -7455,7 +7455,7 @@
         <v>45583</v>
       </c>
       <c r="G120" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="38"/>
@@ -7481,7 +7481,7 @@
         <v>45590</v>
       </c>
       <c r="G121" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="38"/>
@@ -7507,7 +7507,7 @@
         <v>45597</v>
       </c>
       <c r="G122" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="38"/>
@@ -7533,7 +7533,7 @@
         <v>45604</v>
       </c>
       <c r="G123" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="38"/>
@@ -7559,7 +7559,7 @@
         <v>45611</v>
       </c>
       <c r="G124" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="38"/>
@@ -7585,7 +7585,7 @@
         <v>45618</v>
       </c>
       <c r="G125" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="38"/>
@@ -7611,7 +7611,7 @@
         <v>45625</v>
       </c>
       <c r="G126" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="38"/>
@@ -7637,7 +7637,7 @@
         <v>45632</v>
       </c>
       <c r="G127" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="38"/>
@@ -7663,7 +7663,7 @@
         <v>45639</v>
       </c>
       <c r="G128" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="38"/>
@@ -7689,7 +7689,7 @@
         <v>45646</v>
       </c>
       <c r="G129" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="38"/>
@@ -7715,7 +7715,7 @@
         <v>45653</v>
       </c>
       <c r="G130" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="38"/>
@@ -7741,7 +7741,7 @@
         <v>45657</v>
       </c>
       <c r="G131" s="7">
-        <v>1388.65300445301</v>
+        <v>1649.72977871494</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="38"/>
@@ -7767,7 +7767,7 @@
         <v>45429</v>
       </c>
       <c r="G132" s="7">
-        <v>2454.38378430901</v>
+        <v>2524.6799690745502</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="38"/>
@@ -7793,7 +7793,7 @@
         <v>45436</v>
       </c>
       <c r="G133" s="7">
-        <v>2701.9198474523801</v>
+        <v>2636.9621473996099</v>
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="38"/>
@@ -7819,7 +7819,7 @@
         <v>45443</v>
       </c>
       <c r="G134" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="38"/>
@@ -7845,7 +7845,7 @@
         <v>45450</v>
       </c>
       <c r="G135" s="7">
-        <v>2777.30600890601</v>
+        <v>2723.67911332112</v>
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="38"/>
@@ -7871,7 +7871,7 @@
         <v>45457</v>
       </c>
       <c r="G136" s="7">
-        <v>2741.1180465521002</v>
+        <v>2555.5815687929698</v>
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="38"/>
@@ -7897,7 +7897,7 @@
         <v>45464</v>
       </c>
       <c r="G137" s="7">
-        <v>2777.30600890601</v>
+        <v>2598.0560945787702</v>
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="38"/>
@@ -7923,7 +7923,7 @@
         <v>45471</v>
       </c>
       <c r="G138" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="38"/>
@@ -7949,7 +7949,7 @@
         <v>45478</v>
       </c>
       <c r="G139" s="7">
-        <v>2777.30600890601</v>
+        <v>2655.84891507869</v>
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="38"/>
@@ -7975,7 +7975,7 @@
         <v>45485</v>
       </c>
       <c r="G140" s="7">
-        <v>2777.30600890601</v>
+        <v>2746.15910478263</v>
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="38"/>
@@ -8001,7 +8001,7 @@
         <v>45492</v>
       </c>
       <c r="G141" s="7">
-        <v>2777.30600890601</v>
+        <v>2749.5496311915699</v>
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="38"/>
@@ -8027,7 +8027,7 @@
         <v>45499</v>
       </c>
       <c r="G142" s="7">
-        <v>2777.30600890601</v>
+        <v>2741.76376177869</v>
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="38"/>
@@ -8053,7 +8053,7 @@
         <v>45506</v>
       </c>
       <c r="G143" s="7">
-        <v>2750.1653159679599</v>
+        <v>2611.53189883095</v>
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="38"/>
@@ -8079,7 +8079,7 @@
         <v>45513</v>
       </c>
       <c r="G144" s="7">
-        <v>2751.79736386902</v>
+        <v>2609.8619113935702</v>
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="38"/>
@@ -8105,7 +8105,7 @@
         <v>45520</v>
       </c>
       <c r="G145" s="7">
-        <v>2726.9661460870402</v>
+        <v>2527.5412039708799</v>
       </c>
       <c r="H145" s="7"/>
       <c r="I145" s="38"/>
@@ -8131,7 +8131,7 @@
         <v>45527</v>
       </c>
       <c r="G146" s="7">
-        <v>2687.3821449686402</v>
+        <v>2358.02294368413</v>
       </c>
       <c r="H146" s="7"/>
       <c r="I146" s="38"/>
@@ -8157,7 +8157,7 @@
         <v>45534</v>
       </c>
       <c r="G147" s="7">
-        <v>2654.0218064443502</v>
+        <v>2293.8248827914799</v>
       </c>
       <c r="H147" s="7"/>
       <c r="I147" s="38"/>
@@ -8183,7 +8183,7 @@
         <v>45541</v>
       </c>
       <c r="G148" s="7">
-        <v>2521.7155408175499</v>
+        <v>2158.32526437966</v>
       </c>
       <c r="H148" s="7"/>
       <c r="I148" s="38"/>
@@ -8209,7 +8209,7 @@
         <v>45548</v>
       </c>
       <c r="G149" s="7">
-        <v>2471.0135943258401</v>
+        <v>1075.1241266991501</v>
       </c>
       <c r="H149" s="7"/>
       <c r="I149" s="38"/>
@@ -8235,7 +8235,7 @@
         <v>45555</v>
       </c>
       <c r="G150" s="7">
-        <v>2629.60438061388</v>
+        <v>2411.05246497089</v>
       </c>
       <c r="H150" s="7"/>
       <c r="I150" s="38"/>
@@ -8261,7 +8261,7 @@
         <v>45562</v>
       </c>
       <c r="G151" s="7">
-        <v>2777.30600890601</v>
+        <v>2563.14009608166</v>
       </c>
       <c r="H151" s="7"/>
       <c r="I151" s="38"/>
@@ -8287,7 +8287,7 @@
         <v>45569</v>
       </c>
       <c r="G152" s="7">
-        <v>2777.30600890601</v>
+        <v>2677.0750058007602</v>
       </c>
       <c r="H152" s="7"/>
       <c r="I152" s="38"/>
@@ -8313,7 +8313,7 @@
         <v>45576</v>
       </c>
       <c r="G153" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H153" s="7"/>
       <c r="I153" s="38"/>
@@ -8339,7 +8339,7 @@
         <v>45583</v>
       </c>
       <c r="G154" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H154" s="7"/>
       <c r="I154" s="38"/>
@@ -8365,7 +8365,7 @@
         <v>45590</v>
       </c>
       <c r="G155" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H155" s="7"/>
       <c r="I155" s="38"/>
@@ -8391,7 +8391,7 @@
         <v>45597</v>
       </c>
       <c r="G156" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H156" s="7"/>
       <c r="I156" s="38"/>
@@ -8417,7 +8417,7 @@
         <v>45604</v>
       </c>
       <c r="G157" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H157" s="7"/>
       <c r="I157" s="38"/>
@@ -8443,7 +8443,7 @@
         <v>45611</v>
       </c>
       <c r="G158" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H158" s="7"/>
       <c r="I158" s="38"/>
@@ -8469,7 +8469,7 @@
         <v>45618</v>
       </c>
       <c r="G159" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H159" s="7"/>
       <c r="I159" s="38"/>
@@ -8495,7 +8495,7 @@
         <v>45625</v>
       </c>
       <c r="G160" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H160" s="7"/>
       <c r="I160" s="38"/>
@@ -8521,7 +8521,7 @@
         <v>45632</v>
       </c>
       <c r="G161" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H161" s="7"/>
       <c r="I161" s="38"/>
@@ -8547,7 +8547,7 @@
         <v>45639</v>
       </c>
       <c r="G162" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H162" s="7"/>
       <c r="I162" s="38"/>
@@ -8573,7 +8573,7 @@
         <v>45646</v>
       </c>
       <c r="G163" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H163" s="7"/>
       <c r="I163" s="38"/>
@@ -8599,7 +8599,7 @@
         <v>45653</v>
       </c>
       <c r="G164" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H164" s="7"/>
       <c r="I164" s="38"/>
@@ -8625,7 +8625,7 @@
         <v>45657</v>
       </c>
       <c r="G165" s="7">
-        <v>2036.1279004806399</v>
+        <v>1980.3298120469699</v>
       </c>
       <c r="H165" s="7"/>
       <c r="I165" s="38"/>
@@ -8651,7 +8651,7 @@
         <v>45429</v>
       </c>
       <c r="G166" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H166" s="7"/>
       <c r="I166" s="38"/>
@@ -8677,7 +8677,7 @@
         <v>45436</v>
       </c>
       <c r="G167" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H167" s="7"/>
       <c r="I167" s="38"/>
@@ -8703,7 +8703,7 @@
         <v>45443</v>
       </c>
       <c r="G168" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H168" s="7"/>
       <c r="I168" s="38"/>
@@ -8729,7 +8729,7 @@
         <v>45450</v>
       </c>
       <c r="G169" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H169" s="7"/>
       <c r="I169" s="38"/>
@@ -8755,7 +8755,7 @@
         <v>45457</v>
       </c>
       <c r="G170" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H170" s="7"/>
       <c r="I170" s="38"/>
@@ -8781,7 +8781,7 @@
         <v>45464</v>
       </c>
       <c r="G171" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H171" s="7"/>
       <c r="I171" s="38"/>
@@ -8807,7 +8807,7 @@
         <v>45471</v>
       </c>
       <c r="G172" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H172" s="7"/>
       <c r="I172" s="38"/>
@@ -8833,7 +8833,7 @@
         <v>45478</v>
       </c>
       <c r="G173" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H173" s="7"/>
       <c r="I173" s="38"/>
@@ -8859,7 +8859,7 @@
         <v>45485</v>
       </c>
       <c r="G174" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H174" s="7"/>
       <c r="I174" s="38"/>
@@ -8885,7 +8885,7 @@
         <v>45492</v>
       </c>
       <c r="G175" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H175" s="7"/>
       <c r="I175" s="38"/>
@@ -8911,7 +8911,7 @@
         <v>45499</v>
       </c>
       <c r="G176" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H176" s="7"/>
       <c r="I176" s="38"/>
@@ -8937,7 +8937,7 @@
         <v>45506</v>
       </c>
       <c r="G177" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H177" s="7"/>
       <c r="I177" s="38"/>
@@ -8963,7 +8963,7 @@
         <v>45513</v>
       </c>
       <c r="G178" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H178" s="7"/>
       <c r="I178" s="38"/>
@@ -8989,7 +8989,7 @@
         <v>45520</v>
       </c>
       <c r="G179" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H179" s="7"/>
       <c r="I179" s="38"/>
@@ -9015,7 +9015,7 @@
         <v>45527</v>
       </c>
       <c r="G180" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H180" s="7"/>
       <c r="I180" s="38"/>
@@ -9041,7 +9041,7 @@
         <v>45534</v>
       </c>
       <c r="G181" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H181" s="7"/>
       <c r="I181" s="38"/>
@@ -9067,7 +9067,7 @@
         <v>45541</v>
       </c>
       <c r="G182" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H182" s="7"/>
       <c r="I182" s="38"/>
@@ -9093,7 +9093,7 @@
         <v>45548</v>
       </c>
       <c r="G183" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H183" s="7"/>
       <c r="I183" s="38"/>
@@ -9119,7 +9119,7 @@
         <v>45555</v>
       </c>
       <c r="G184" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H184" s="7"/>
       <c r="I184" s="38"/>
@@ -9145,7 +9145,7 @@
         <v>45562</v>
       </c>
       <c r="G185" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H185" s="7"/>
       <c r="I185" s="38"/>
@@ -9171,7 +9171,7 @@
         <v>45569</v>
       </c>
       <c r="G186" s="7">
-        <v>2499.5754080154102</v>
+        <v>2474.5946680724201</v>
       </c>
       <c r="H186" s="7"/>
       <c r="I186" s="38"/>
@@ -9197,7 +9197,7 @@
         <v>45576</v>
       </c>
       <c r="G187" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H187" s="7"/>
       <c r="I187" s="38"/>
@@ -9223,7 +9223,7 @@
         <v>45583</v>
       </c>
       <c r="G188" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H188" s="7"/>
       <c r="I188" s="38"/>
@@ -9249,7 +9249,7 @@
         <v>45590</v>
       </c>
       <c r="G189" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H189" s="7"/>
       <c r="I189" s="38"/>
@@ -9275,7 +9275,7 @@
         <v>45597</v>
       </c>
       <c r="G190" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H190" s="7"/>
       <c r="I190" s="38"/>
@@ -9301,7 +9301,7 @@
         <v>45604</v>
       </c>
       <c r="G191" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H191" s="7"/>
       <c r="I191" s="38"/>
@@ -9327,7 +9327,7 @@
         <v>45611</v>
       </c>
       <c r="G192" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H192" s="7"/>
       <c r="I192" s="38"/>
@@ -9353,7 +9353,7 @@
         <v>45618</v>
       </c>
       <c r="G193" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H193" s="7"/>
       <c r="I193" s="38"/>
@@ -9379,7 +9379,7 @@
         <v>45625</v>
       </c>
       <c r="G194" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H194" s="7"/>
       <c r="I194" s="38"/>
@@ -9405,7 +9405,7 @@
         <v>45632</v>
       </c>
       <c r="G195" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H195" s="7"/>
       <c r="I195" s="38"/>
@@ -9431,7 +9431,7 @@
         <v>45639</v>
       </c>
       <c r="G196" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H196" s="7"/>
       <c r="I196" s="38"/>
@@ -9457,7 +9457,7 @@
         <v>45646</v>
       </c>
       <c r="G197" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H197" s="7"/>
       <c r="I197" s="38"/>
@@ -9483,7 +9483,7 @@
         <v>45653</v>
       </c>
       <c r="G198" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H198" s="7"/>
       <c r="I198" s="38"/>
@@ -9509,7 +9509,7 @@
         <v>45657</v>
       </c>
       <c r="G199" s="7">
-        <v>1041.48975333976</v>
+        <v>1374.77481559579</v>
       </c>
       <c r="H199" s="7"/>
       <c r="I199" s="38"/>
@@ -9535,7 +9535,7 @@
         <v>45429</v>
       </c>
       <c r="G200" s="7">
-        <v>2524.6799690745502</v>
+        <v>2517.29023857927</v>
       </c>
       <c r="H200" s="7"/>
       <c r="I200" s="38"/>
@@ -9561,7 +9561,7 @@
         <v>45436</v>
       </c>
       <c r="G201" s="7">
-        <v>2636.9621473996099</v>
+        <v>2587.5292480173498</v>
       </c>
       <c r="H201" s="7"/>
       <c r="I201" s="38"/>
@@ -9587,7 +9587,7 @@
         <v>45443</v>
       </c>
       <c r="G202" s="7">
-        <v>2749.5496311915699</v>
+        <v>2676.12417591135</v>
       </c>
       <c r="H202" s="7"/>
       <c r="I202" s="38"/>
@@ -9613,7 +9613,7 @@
         <v>45450</v>
       </c>
       <c r="G203" s="7">
-        <v>2723.67911332112</v>
+        <v>2465.8768381548498</v>
       </c>
       <c r="H203" s="7"/>
       <c r="I203" s="38"/>
@@ -9639,7 +9639,7 @@
         <v>45457</v>
       </c>
       <c r="G204" s="7">
-        <v>2555.5815687929698</v>
+        <v>2158.32526437966</v>
       </c>
       <c r="H204" s="7"/>
       <c r="I204" s="38"/>
@@ -9665,7 +9665,7 @@
         <v>45464</v>
       </c>
       <c r="G205" s="7">
-        <v>2598.0560945787702</v>
+        <v>2461.9703986193999</v>
       </c>
       <c r="H205" s="7"/>
       <c r="I205" s="38"/>
@@ -9691,7 +9691,7 @@
         <v>45471</v>
       </c>
       <c r="G206" s="7">
-        <v>2749.5496311915699</v>
+        <v>2514.2190526170498</v>
       </c>
       <c r="H206" s="7"/>
       <c r="I206" s="38"/>
@@ -9717,7 +9717,7 @@
         <v>45478</v>
       </c>
       <c r="G207" s="7">
-        <v>2655.84891507869</v>
+        <v>2361.9223115472701</v>
       </c>
       <c r="H207" s="7"/>
       <c r="I207" s="38"/>
@@ -9743,7 +9743,7 @@
         <v>45485</v>
       </c>
       <c r="G208" s="7">
-        <v>2746.15910478263</v>
+        <v>2691.70569277309</v>
       </c>
       <c r="H208" s="7"/>
       <c r="I208" s="38"/>
@@ -9769,7 +9769,7 @@
         <v>45492</v>
       </c>
       <c r="G209" s="7">
-        <v>2749.5496311915699</v>
+        <v>2748.4050911437098</v>
       </c>
       <c r="H209" s="7"/>
       <c r="I209" s="38"/>
@@ -9795,7 +9795,7 @@
         <v>45499</v>
       </c>
       <c r="G210" s="7">
-        <v>2741.76376177869</v>
+        <v>2580.6878060402901</v>
       </c>
       <c r="H210" s="7"/>
       <c r="I210" s="38"/>
@@ -9821,7 +9821,7 @@
         <v>45506</v>
       </c>
       <c r="G211" s="7">
-        <v>2611.53189883095</v>
+        <v>2283.1491922373498</v>
       </c>
       <c r="H211" s="7"/>
       <c r="I211" s="38"/>
@@ -9847,7 +9847,7 @@
         <v>45513</v>
       </c>
       <c r="G212" s="7">
-        <v>2609.8619113935702</v>
+        <v>2309.0372129467</v>
       </c>
       <c r="H212" s="7"/>
       <c r="I212" s="38"/>
@@ -9873,7 +9873,7 @@
         <v>45520</v>
       </c>
       <c r="G213" s="7">
-        <v>2527.5412039708799</v>
+        <v>2148.0359592186901</v>
       </c>
       <c r="H213" s="7"/>
       <c r="I213" s="38"/>
@@ -9899,7 +9899,7 @@
         <v>45527</v>
       </c>
       <c r="G214" s="7">
-        <v>2358.02294368413</v>
+        <v>1525.71197727258</v>
       </c>
       <c r="H214" s="7"/>
       <c r="I214" s="38"/>
@@ -9925,7 +9925,7 @@
         <v>45534</v>
       </c>
       <c r="G215" s="7">
-        <v>2293.8248827914799</v>
+        <v>1726.32070606772</v>
       </c>
       <c r="H215" s="7"/>
       <c r="I215" s="38"/>
@@ -9951,7 +9951,7 @@
         <v>45541</v>
       </c>
       <c r="G216" s="7">
-        <v>2158.32526437966</v>
+        <v>1269.6767006350699</v>
       </c>
       <c r="H216" s="7"/>
       <c r="I216" s="38"/>
@@ -9977,7 +9977,7 @@
         <v>45548</v>
       </c>
       <c r="G217" s="7">
-        <v>1075.1241266991501</v>
+        <v>733.65618814087202</v>
       </c>
       <c r="H217" s="7"/>
       <c r="I217" s="38"/>
@@ -10003,7 +10003,7 @@
         <v>45555</v>
       </c>
       <c r="G218" s="7">
-        <v>2411.05246497089</v>
+        <v>2152.64259325167</v>
       </c>
       <c r="H218" s="7"/>
       <c r="I218" s="38"/>
@@ -10029,7 +10029,7 @@
         <v>45562</v>
       </c>
       <c r="G219" s="7">
-        <v>2563.14009608166</v>
+        <v>2350.4599521565101</v>
       </c>
       <c r="H219" s="7"/>
       <c r="I219" s="38"/>
@@ -10055,7 +10055,7 @@
         <v>45569</v>
       </c>
       <c r="G220" s="7">
-        <v>2677.0750058007602</v>
+        <v>2568.0965805744299</v>
       </c>
       <c r="H220" s="7"/>
       <c r="I220" s="38"/>
@@ -10081,7 +10081,7 @@
         <v>45576</v>
       </c>
       <c r="G221" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H221" s="7"/>
       <c r="I221" s="38"/>
@@ -10107,7 +10107,7 @@
         <v>45583</v>
       </c>
       <c r="G222" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H222" s="7"/>
       <c r="I222" s="38"/>
@@ -10133,7 +10133,7 @@
         <v>45590</v>
       </c>
       <c r="G223" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H223" s="7"/>
       <c r="I223" s="38"/>
@@ -10159,7 +10159,7 @@
         <v>45597</v>
       </c>
       <c r="G224" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H224" s="7"/>
       <c r="I224" s="38"/>
@@ -10185,7 +10185,7 @@
         <v>45604</v>
       </c>
       <c r="G225" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H225" s="7"/>
       <c r="I225" s="38"/>
@@ -10211,7 +10211,7 @@
         <v>45611</v>
       </c>
       <c r="G226" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H226" s="7"/>
       <c r="I226" s="38"/>
@@ -10237,7 +10237,7 @@
         <v>45618</v>
       </c>
       <c r="G227" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H227" s="7"/>
       <c r="I227" s="38"/>
@@ -10263,7 +10263,7 @@
         <v>45625</v>
       </c>
       <c r="G228" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H228" s="7"/>
       <c r="I228" s="38"/>
@@ -10289,7 +10289,7 @@
         <v>45632</v>
       </c>
       <c r="G229" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H229" s="7"/>
       <c r="I229" s="38"/>
@@ -10315,7 +10315,7 @@
         <v>45639</v>
       </c>
       <c r="G230" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H230" s="7"/>
       <c r="I230" s="38"/>
@@ -10341,7 +10341,7 @@
         <v>45646</v>
       </c>
       <c r="G231" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H231" s="7"/>
       <c r="I231" s="38"/>
@@ -10367,7 +10367,7 @@
         <v>45653</v>
       </c>
       <c r="G232" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H232" s="7"/>
       <c r="I232" s="38"/>
@@ -10393,7 +10393,7 @@
         <v>45657</v>
       </c>
       <c r="G233" s="7">
-        <v>1547.13266566169</v>
+        <v>1506.40093386679</v>
       </c>
       <c r="H233" s="7"/>
       <c r="I233" s="38"/>
@@ -10419,7 +10419,7 @@
         <v>45429</v>
       </c>
       <c r="G234" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H234" s="7"/>
       <c r="I234" s="38"/>
@@ -10445,7 +10445,7 @@
         <v>45436</v>
       </c>
       <c r="G235" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H235" s="7"/>
       <c r="I235" s="38"/>
@@ -10471,7 +10471,7 @@
         <v>45443</v>
       </c>
       <c r="G236" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H236" s="7"/>
       <c r="I236" s="38"/>
@@ -10497,7 +10497,7 @@
         <v>45450</v>
       </c>
       <c r="G237" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H237" s="7"/>
       <c r="I237" s="38"/>
@@ -10523,7 +10523,7 @@
         <v>45457</v>
       </c>
       <c r="G238" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H238" s="7"/>
       <c r="I238" s="38"/>
@@ -10549,7 +10549,7 @@
         <v>45464</v>
       </c>
       <c r="G239" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H239" s="7"/>
       <c r="I239" s="38"/>
@@ -10575,7 +10575,7 @@
         <v>45471</v>
       </c>
       <c r="G240" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H240" s="7"/>
       <c r="I240" s="38"/>
@@ -10601,7 +10601,7 @@
         <v>45478</v>
       </c>
       <c r="G241" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H241" s="7"/>
       <c r="I241" s="38"/>
@@ -10627,7 +10627,7 @@
         <v>45485</v>
       </c>
       <c r="G242" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H242" s="7"/>
       <c r="I242" s="38"/>
@@ -10653,7 +10653,7 @@
         <v>45492</v>
       </c>
       <c r="G243" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H243" s="7"/>
       <c r="I243" s="38"/>
@@ -10679,7 +10679,7 @@
         <v>45499</v>
       </c>
       <c r="G244" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H244" s="7"/>
       <c r="I244" s="38"/>
@@ -10705,7 +10705,7 @@
         <v>45506</v>
       </c>
       <c r="G245" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H245" s="7"/>
       <c r="I245" s="38"/>
@@ -10731,7 +10731,7 @@
         <v>45513</v>
       </c>
       <c r="G246" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H246" s="7"/>
       <c r="I246" s="38"/>
@@ -10757,7 +10757,7 @@
         <v>45520</v>
       </c>
       <c r="G247" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H247" s="7"/>
       <c r="I247" s="38"/>
@@ -10783,7 +10783,7 @@
         <v>45527</v>
       </c>
       <c r="G248" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H248" s="7"/>
       <c r="I248" s="38"/>
@@ -10809,7 +10809,7 @@
         <v>45534</v>
       </c>
       <c r="G249" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H249" s="7"/>
       <c r="I249" s="38"/>
@@ -10835,7 +10835,7 @@
         <v>45541</v>
       </c>
       <c r="G250" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H250" s="7"/>
       <c r="I250" s="38"/>
@@ -10861,7 +10861,7 @@
         <v>45548</v>
       </c>
       <c r="G251" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H251" s="7"/>
       <c r="I251" s="38"/>
@@ -10887,7 +10887,7 @@
         <v>45555</v>
       </c>
       <c r="G252" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H252" s="7"/>
       <c r="I252" s="38"/>
@@ -10913,7 +10913,7 @@
         <v>45562</v>
       </c>
       <c r="G253" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H253" s="7"/>
       <c r="I253" s="38"/>
@@ -10939,7 +10939,7 @@
         <v>45569</v>
       </c>
       <c r="G254" s="7">
-        <v>2221.8448071248099</v>
+        <v>2199.6397049532602</v>
       </c>
       <c r="H254" s="7"/>
       <c r="I254" s="38"/>
@@ -10965,7 +10965,7 @@
         <v>45576</v>
       </c>
       <c r="G255" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H255" s="7"/>
       <c r="I255" s="38"/>
@@ -10991,7 +10991,7 @@
         <v>45583</v>
       </c>
       <c r="G256" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H256" s="7"/>
       <c r="I256" s="38"/>
@@ -11017,7 +11017,7 @@
         <v>45590</v>
       </c>
       <c r="G257" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H257" s="7"/>
       <c r="I257" s="38"/>
@@ -11043,7 +11043,7 @@
         <v>45597</v>
       </c>
       <c r="G258" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H258" s="7"/>
       <c r="I258" s="38"/>
@@ -11069,7 +11069,7 @@
         <v>45604</v>
       </c>
       <c r="G259" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H259" s="7"/>
       <c r="I259" s="38"/>
@@ -11095,7 +11095,7 @@
         <v>45611</v>
       </c>
       <c r="G260" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H260" s="7"/>
       <c r="I260" s="38"/>
@@ -11121,7 +11121,7 @@
         <v>45618</v>
       </c>
       <c r="G261" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H261" s="7"/>
       <c r="I261" s="38"/>
@@ -11147,7 +11147,7 @@
         <v>45625</v>
       </c>
       <c r="G262" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H262" s="7"/>
       <c r="I262" s="38"/>
@@ -11173,7 +11173,7 @@
         <v>45632</v>
       </c>
       <c r="G263" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H263" s="7"/>
       <c r="I263" s="38"/>
@@ -11199,7 +11199,7 @@
         <v>45639</v>
       </c>
       <c r="G264" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H264" s="7"/>
       <c r="I264" s="38"/>
@@ -11225,7 +11225,7 @@
         <v>45646</v>
       </c>
       <c r="G265" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H265" s="7"/>
       <c r="I265" s="38"/>
@@ -11251,7 +11251,7 @@
         <v>45653</v>
       </c>
       <c r="G266" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H266" s="7"/>
       <c r="I266" s="38"/>
@@ -11277,7 +11277,7 @@
         <v>45657</v>
       </c>
       <c r="G267" s="7">
-        <v>694.32650222650295</v>
+        <v>1099.8198524766301</v>
       </c>
       <c r="H267" s="7"/>
       <c r="I267" s="38"/>
@@ -11303,7 +11303,7 @@
         <v>45429</v>
       </c>
       <c r="G268" s="7">
-        <v>2517.29023857927</v>
+        <v>2465.9878715878599</v>
       </c>
       <c r="H268" s="7"/>
       <c r="I268" s="38"/>
@@ -11329,7 +11329,7 @@
         <v>45436</v>
       </c>
       <c r="G269" s="7">
-        <v>2587.5292480173498</v>
+        <v>2517.29023857927</v>
       </c>
       <c r="H269" s="7"/>
       <c r="I269" s="38"/>
@@ -11355,7 +11355,7 @@
         <v>45443</v>
       </c>
       <c r="G270" s="7">
-        <v>2676.12417591135</v>
+        <v>2458.0574774291599</v>
       </c>
       <c r="H270" s="7"/>
       <c r="I270" s="38"/>
@@ -11381,7 +11381,7 @@
         <v>45450</v>
       </c>
       <c r="G271" s="7">
-        <v>2465.8768381548498</v>
+        <v>2180.34347149123</v>
       </c>
       <c r="H271" s="7"/>
       <c r="I271" s="38"/>
@@ -11407,7 +11407,7 @@
         <v>45457</v>
       </c>
       <c r="G272" s="7">
-        <v>2158.32526437966</v>
+        <v>1694.70684304922</v>
       </c>
       <c r="H272" s="7"/>
       <c r="I272" s="38"/>
@@ -11433,7 +11433,7 @@
         <v>45464</v>
       </c>
       <c r="G273" s="7">
-        <v>2461.9703986193999</v>
+        <v>2314.2423202124701</v>
       </c>
       <c r="H273" s="7"/>
       <c r="I273" s="38"/>
@@ -11459,7 +11459,7 @@
         <v>45471</v>
       </c>
       <c r="G274" s="7">
-        <v>2514.2190526170498</v>
+        <v>2248.4242186389902</v>
       </c>
       <c r="H274" s="7"/>
       <c r="I274" s="38"/>
@@ -11485,7 +11485,7 @@
         <v>45478</v>
       </c>
       <c r="G275" s="7">
-        <v>2361.9223115472701</v>
+        <v>2103.8598421576198</v>
       </c>
       <c r="H275" s="7"/>
       <c r="I275" s="38"/>
@@ -11511,7 +11511,7 @@
         <v>45485</v>
       </c>
       <c r="G276" s="7">
-        <v>2691.70569277309</v>
+        <v>2533.36318499046</v>
       </c>
       <c r="H276" s="7"/>
       <c r="I276" s="38"/>
@@ -11537,7 +11537,7 @@
         <v>45492</v>
       </c>
       <c r="G277" s="7">
-        <v>2748.4050911437098</v>
+        <v>2594.3721091642401</v>
       </c>
       <c r="H277" s="7"/>
       <c r="I277" s="38"/>
@@ -11563,7 +11563,7 @@
         <v>45499</v>
       </c>
       <c r="G278" s="7">
-        <v>2580.6878060402901</v>
+        <v>2271.5835651037901</v>
       </c>
       <c r="H278" s="7"/>
       <c r="I278" s="38"/>
@@ -11589,7 +11589,7 @@
         <v>45506</v>
       </c>
       <c r="G279" s="7">
-        <v>2283.1491922373498</v>
+        <v>1709.68817299326</v>
       </c>
       <c r="H279" s="7"/>
       <c r="I279" s="38"/>
@@ -11615,7 +11615,7 @@
         <v>45513</v>
       </c>
       <c r="G280" s="7">
-        <v>2309.0372129467</v>
+        <v>1987.10847072308</v>
       </c>
       <c r="H280" s="7"/>
       <c r="I280" s="38"/>
@@ -11641,7 +11641,7 @@
         <v>45520</v>
       </c>
       <c r="G281" s="7">
-        <v>2148.0359592186901</v>
+        <v>1787.8228183834999</v>
       </c>
       <c r="H281" s="7"/>
       <c r="I281" s="38"/>
@@ -11667,7 +11667,7 @@
         <v>45527</v>
       </c>
       <c r="G282" s="7">
-        <v>1525.71197727258</v>
+        <v>1285.2106264588899</v>
       </c>
       <c r="H282" s="7"/>
       <c r="I282" s="38"/>
@@ -11693,7 +11693,7 @@
         <v>45534</v>
       </c>
       <c r="G283" s="7">
-        <v>1726.32070606772</v>
+        <v>1462.4195816198701</v>
       </c>
       <c r="H283" s="7"/>
       <c r="I283" s="38"/>
@@ -11719,7 +11719,7 @@
         <v>45541</v>
       </c>
       <c r="G284" s="7">
-        <v>1269.6767006350699</v>
+        <v>1086.1129870388399</v>
       </c>
       <c r="H284" s="7"/>
       <c r="I284" s="38"/>
@@ -11745,7 +11745,7 @@
         <v>45548</v>
       </c>
       <c r="G285" s="7">
-        <v>733.65618814087202</v>
+        <v>640.47880475825195</v>
       </c>
       <c r="H285" s="7"/>
       <c r="I285" s="38"/>
@@ -11771,7 +11771,7 @@
         <v>45555</v>
       </c>
       <c r="G286" s="7">
-        <v>2152.64259325167</v>
+        <v>1882.6236745133899</v>
       </c>
       <c r="H286" s="7"/>
       <c r="I286" s="38"/>
@@ -11797,7 +11797,7 @@
         <v>45562</v>
       </c>
       <c r="G287" s="7">
-        <v>2350.4599521565101</v>
+        <v>2052.8133865741302</v>
       </c>
       <c r="H287" s="7"/>
       <c r="I287" s="38"/>
@@ -11823,7 +11823,7 @@
         <v>45569</v>
       </c>
       <c r="G288" s="7">
-        <v>2568.0965805744299</v>
+        <v>2467.1680089310998</v>
       </c>
       <c r="H288" s="7"/>
       <c r="I288" s="38"/>
@@ -11849,7 +11849,7 @@
         <v>45576</v>
       </c>
       <c r="G289" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H289" s="7"/>
       <c r="I289" s="38"/>
@@ -11875,7 +11875,7 @@
         <v>45583</v>
       </c>
       <c r="G290" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H290" s="7"/>
       <c r="I290" s="38"/>
@@ -11901,7 +11901,7 @@
         <v>45590</v>
       </c>
       <c r="G291" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H291" s="7"/>
       <c r="I291" s="38"/>
@@ -11927,7 +11927,7 @@
         <v>45597</v>
       </c>
       <c r="G292" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H292" s="7"/>
       <c r="I292" s="38"/>
@@ -11953,7 +11953,7 @@
         <v>45604</v>
       </c>
       <c r="G293" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H293" s="7"/>
       <c r="I293" s="38"/>
@@ -11979,7 +11979,7 @@
         <v>45611</v>
       </c>
       <c r="G294" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H294" s="7"/>
       <c r="I294" s="38"/>
@@ -12005,7 +12005,7 @@
         <v>45618</v>
       </c>
       <c r="G295" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H295" s="7"/>
       <c r="I295" s="38"/>
@@ -12031,7 +12031,7 @@
         <v>45625</v>
       </c>
       <c r="G296" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H296" s="7"/>
       <c r="I296" s="38"/>
@@ -12057,7 +12057,7 @@
         <v>45632</v>
       </c>
       <c r="G297" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H297" s="7"/>
       <c r="I297" s="38"/>
@@ -12083,7 +12083,7 @@
         <v>45639</v>
       </c>
       <c r="G298" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H298" s="7"/>
       <c r="I298" s="38"/>
@@ -12109,7 +12109,7 @@
         <v>45646</v>
       </c>
       <c r="G299" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H299" s="7"/>
       <c r="I299" s="38"/>
@@ -12135,7 +12135,7 @@
         <v>45653</v>
       </c>
       <c r="G300" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H300" s="7"/>
       <c r="I300" s="38"/>
@@ -12161,7 +12161,7 @@
         <v>45657</v>
       </c>
       <c r="G301" s="7">
-        <v>1076.0006670477101</v>
+        <v>1133.71759818745</v>
       </c>
       <c r="H301" s="7"/>
       <c r="I301" s="38"/>
@@ -16126,8 +16126,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
